--- a/interface-test/util/excel/interfacedata.xlsx
+++ b/interface-test/util/excel/interfacedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>模块</t>
   </si>
@@ -43,50 +43,10 @@
     <t>账号密码</t>
   </si>
   <si>
-    <t>通联-提现</t>
-  </si>
-  <si>
-    <t>单笔代付-交易成功</t>
-  </si>
-  <si>
-    <t>http://10.100.30.27:8079/withdraw/send</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>丁旭</t>
   </si>
   <si>
     <t>{"username":"Demo001","passwd":"Test123456!"}</t>
-  </si>
-  <si>
-    <t>{
-    "cardHolderName":"持人姓名0617",
-    "cardNo":"62220202000818449169",
-    "bizOrderNo":"202001021627301269414101",
-    "certNo":"110101199607280175",
-    "bizDate":"20200619",
-    "certType":"01",
-    "cityCode":"510100",
-    "epFlag":"E",
-    "notifyKey":"paycore.xwzf.depute",
-    "outBizNo":"tx20200619001",
-    "productCode":"tx001",
-    "productLine":"xw0201",
-    "provinceCode":"510000",
-    "purpose":"调试提现0617",
-    "bankCode":"0102",
-    "bankName":"招商银行",
-    "remark":"代付123",
-    "sceneCode":"01",
-    "systemId":"xwzf",
-    "transAmount":7.99,
-    "unitedBankNo":"309391000126",
-    "uuid":"",
-    "payCardNo":"123"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高性能计算-作业</t>
@@ -212,11 +172,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -546,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,93 +523,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="2">
+        <v>200</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3">
-        <v>200</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8"/>
+      <c r="J2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>

--- a/interface-test/util/excel/interfacedata.xlsx
+++ b/interface-test/util/excel/interfacedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>模块</t>
   </si>
@@ -43,10 +43,50 @@
     <t>账号密码</t>
   </si>
   <si>
+    <t>通联-提现</t>
+  </si>
+  <si>
+    <t>单笔代付-交易成功</t>
+  </si>
+  <si>
+    <t>http://10.100.30.27:8079/withdraw/send</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>丁旭</t>
   </si>
   <si>
     <t>{"username":"Demo001","passwd":"Test123456!"}</t>
+  </si>
+  <si>
+    <t>{
+    "cardHolderName":"持人姓名0617",
+    "cardNo":"62220202000818449169",
+    "bizOrderNo":"202001021627301269414101",
+    "certNo":"110101199607280175",
+    "bizDate":"20200619",
+    "certType":"01",
+    "cityCode":"510100",
+    "epFlag":"E",
+    "notifyKey":"paycore.xwzf.depute",
+    "outBizNo":"tx20200619001",
+    "productCode":"tx001",
+    "productLine":"xw0201",
+    "provinceCode":"510000",
+    "purpose":"调试提现0617",
+    "bankCode":"0102",
+    "bankName":"招商银行",
+    "remark":"代付123",
+    "sceneCode":"01",
+    "systemId":"xwzf",
+    "transAmount":7.99,
+    "unitedBankNo":"309391000126",
+    "uuid":"",
+    "payCardNo":"123"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高性能计算-作业</t>
@@ -172,8 +212,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -503,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,66 +566,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3">
         <v>200</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
